--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/64.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/64.xlsx
@@ -479,13 +479,13 @@
         <v>-3.595964494448145</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.621900818576286</v>
+        <v>-6.038177843700976</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.419515490313475</v>
+        <v>-6.694179896096757</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.12348557889508</v>
+        <v>-11.06125594592733</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.399479947974048</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.465508731476194</v>
+        <v>-6.839031391549713</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.063292671976318</v>
+        <v>-6.354799706416122</v>
       </c>
       <c r="G3" t="n">
-        <v>-12.9968235425527</v>
+        <v>-12.04960290712226</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.312464468616124</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.556021269169042</v>
+        <v>-7.902815728701135</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.046220259997051</v>
+        <v>-6.308852819880856</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.50302153553933</v>
+        <v>-12.72961976124832</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.147970422638419</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.390789857653568</v>
+        <v>-8.692209444453823</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.584600231622941</v>
+        <v>-5.771770970515914</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.49004357587333</v>
+        <v>-13.67469901167105</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.854108629481643</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.36297376214647</v>
+        <v>-9.585103435579102</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.186322176216582</v>
+        <v>-5.398539297288759</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.23100190059549</v>
+        <v>-14.50770755768349</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.345258388858836</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.16611047620206</v>
+        <v>-10.32262478847382</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.116394710999097</v>
+        <v>-5.248686347810949</v>
       </c>
       <c r="G7" t="n">
-        <v>-15.75553855833993</v>
+        <v>-15.12402065233366</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.577434266081035</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.22804676875779</v>
+        <v>-11.30731966153916</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.695319216572314</v>
+        <v>-4.893852007423996</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.8945451551457</v>
+        <v>-16.28829852563451</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.510781656333786</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.66201457429263</v>
+        <v>-11.69727173825117</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.321823536974347</v>
+        <v>-4.519310080356509</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.43697068901618</v>
+        <v>-16.80743771979788</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.136755859320762</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.34948227488387</v>
+        <v>-12.24994951952157</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.111762467930479</v>
+        <v>-4.317633658089401</v>
       </c>
       <c r="G10" t="n">
-        <v>-18.10273119911832</v>
+        <v>-17.54223100686086</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.468379245937077</v>
       </c>
       <c r="E11" t="n">
-        <v>-13.78133314044534</v>
+        <v>-12.67571357153372</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.234051196692622</v>
+        <v>-4.47835975883923</v>
       </c>
       <c r="G11" t="n">
-        <v>-18.46070428191384</v>
+        <v>-17.88088273451832</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.549439315864238</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.60574192337887</v>
+        <v>-13.43182292853645</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.783323875618</v>
+        <v>-3.995047206996619</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.49951321842341</v>
+        <v>-17.92024412880386</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.444761262982958</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.28199424221741</v>
+        <v>-14.10222799516217</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.976517870971011</v>
+        <v>-4.188847439201127</v>
       </c>
       <c r="G13" t="n">
-        <v>-18.28496893008258</v>
+        <v>-17.62597969449111</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.245435686852244</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.8949192551088</v>
+        <v>-14.64524998787041</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.886555255612909</v>
+        <v>-4.170342548209854</v>
       </c>
       <c r="G14" t="n">
-        <v>-17.81939369515313</v>
+        <v>-17.12943260105977</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.051206991271433</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.34444876950103</v>
+        <v>-15.07676351195805</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.687641122225607</v>
+        <v>-3.947814511655353</v>
       </c>
       <c r="G15" t="n">
-        <v>-16.79971797795502</v>
+        <v>-16.04286549190852</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.9546124941424344</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.18618908177778</v>
+        <v>-15.86347316294081</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.586536460217806</v>
+        <v>-3.814168619941366</v>
       </c>
       <c r="G16" t="n">
-        <v>-15.89801888546243</v>
+        <v>-15.1400468168434</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.03448306739478692</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.83833859676243</v>
+        <v>-16.53442579833562</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.288976835276761</v>
+        <v>-3.458366256194764</v>
       </c>
       <c r="G17" t="n">
-        <v>-14.80232888949752</v>
+        <v>-14.07075745795983</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6546734353753577</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.5629529715285</v>
+        <v>-17.18647753318293</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.815295626961973</v>
+        <v>-3.002256138559668</v>
       </c>
       <c r="G18" t="n">
-        <v>-13.61096591815395</v>
+        <v>-12.81015148236015</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.085500547255376</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.9211288571712</v>
+        <v>-18.48527154142008</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.871426314801024</v>
+        <v>-2.994619509833547</v>
       </c>
       <c r="G19" t="n">
-        <v>-12.55160124321022</v>
+        <v>-11.65693254259225</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.252141214660515</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.97558008021369</v>
+        <v>-19.5462349216093</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.568513227340707</v>
+        <v>-2.625093703811514</v>
       </c>
       <c r="G20" t="n">
-        <v>-11.06055681794536</v>
+        <v>-10.21028518868585</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.16988149088527</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.70233095098059</v>
+        <v>-20.24740650844851</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.232814459830859</v>
+        <v>-2.239131056702913</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.2310243558153</v>
+        <v>-9.44149863687721</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.872877186990211</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.42530750844624</v>
+        <v>-21.009402229719</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.465839194128626</v>
+        <v>-2.447578753480699</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.304420662342647</v>
+        <v>-8.51936838468778</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4072439066437146</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.81606627129128</v>
+        <v>-21.38787491830749</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.233660258018836</v>
+        <v>-2.20034167622081</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.349675845344029</v>
+        <v>-7.677784520630775</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.1725888626707212</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.47371591900122</v>
+        <v>-22.00432001614306</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.068167375573764</v>
+        <v>-2.050063383145579</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.923843347235737</v>
+        <v>-7.2792131248124</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.8072272434835392</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.86659162181963</v>
+        <v>-22.47089260847336</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.297980032359968</v>
+        <v>-2.192093921636324</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.58239021864353</v>
+        <v>-7.044897692701768</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.438630172499062</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.37194870562517</v>
+        <v>-22.88193097180236</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.27208296298592</v>
+        <v>-2.11631920420601</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.481197554512124</v>
+        <v>-6.931228283045995</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.013619064183055</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.13514476901927</v>
+        <v>-22.73147667447992</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.29125764791796</v>
+        <v>-2.195623784594237</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.612315829675916</v>
+        <v>-7.119973282150114</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.486499796240462</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.25574190140546</v>
+        <v>-22.84643678194856</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.211146381396692</v>
+        <v>-2.098454773114303</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.994440606393988</v>
+        <v>-7.535959320428439</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.82363524763882</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.17279989990825</v>
+        <v>-22.78259124127352</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.534871971089466</v>
+        <v>-2.467921911053932</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.466606222580033</v>
+        <v>-8.051348646324879</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.003902592859459</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.1868606836575</v>
+        <v>-22.73611634199662</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.559468564636914</v>
+        <v>-2.446987183649802</v>
       </c>
       <c r="G30" t="n">
-        <v>-9.085109592306576</v>
+        <v>-8.711604134694875</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.020941214521442</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.13580478494631</v>
+        <v>-22.75996002848657</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.511072285661323</v>
+        <v>-2.43111257835293</v>
       </c>
       <c r="G31" t="n">
-        <v>-9.783724228554389</v>
+        <v>-9.412897946705757</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.881291082353088</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.87086461382132</v>
+        <v>-22.55142921859204</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.599338415636606</v>
+        <v>-2.573710241640238</v>
       </c>
       <c r="G32" t="n">
-        <v>-9.990895894539909</v>
+        <v>-9.694543854294993</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.600920268926531</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.87295710876036</v>
+        <v>-22.53429813853037</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.437551400396656</v>
+        <v>-2.428374734507457</v>
       </c>
       <c r="G33" t="n">
-        <v>-10.81103168547176</v>
+        <v>-10.49587163580982</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.204675346742572</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.05961214836665</v>
+        <v>-21.71840600555901</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.739902252067278</v>
+        <v>-2.695026058035865</v>
       </c>
       <c r="G34" t="n">
-        <v>-10.93669382897207</v>
+        <v>-10.61210288506386</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.721886583298087</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.68493332910689</v>
+        <v>-21.33822705357397</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.580999750878808</v>
+        <v>-2.539756088949514</v>
       </c>
       <c r="G35" t="n">
-        <v>-11.35540793308214</v>
+        <v>-11.03361839010866</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.186831052475659</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.47433935831453</v>
+        <v>-21.10211246693631</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.719764432782455</v>
+        <v>-2.722570722724064</v>
       </c>
       <c r="G36" t="n">
-        <v>-11.21691214655617</v>
+        <v>-10.91373994173191</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.6367920227462196</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.91923174063127</v>
+        <v>-20.53275828324286</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.683341331623939</v>
+        <v>-2.596473457612594</v>
       </c>
       <c r="G37" t="n">
-        <v>-11.41633473665763</v>
+        <v>-11.12612328903756</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.1071287266505743</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.54022126128742</v>
+        <v>-20.17513720894177</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.713990515672629</v>
+        <v>-2.654388632958068</v>
       </c>
       <c r="G38" t="n">
-        <v>-11.30927037527906</v>
+        <v>-10.97362049783788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3685986228021726</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.13592972743476</v>
+        <v>-19.81569742408618</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.624736806310229</v>
+        <v>-2.589276839504495</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.27632335800292</v>
+        <v>-10.93467955814291</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7628402042643504</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.59734695296168</v>
+        <v>-19.304155746594</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.779190311249806</v>
+        <v>-2.708549051029752</v>
       </c>
       <c r="G40" t="n">
-        <v>-11.2706081089755</v>
+        <v>-10.89208653031834</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.059825442556561</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.95590436301557</v>
+        <v>-18.61896632320274</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.630095157836368</v>
+        <v>-2.513551012142849</v>
       </c>
       <c r="G41" t="n">
-        <v>-11.40138415365861</v>
+        <v>-11.04132835393779</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.254771645539677</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.9203906171343</v>
+        <v>-18.54293248840848</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.354628954926912</v>
+        <v>-2.315282227661981</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.31319624779319</v>
+        <v>-10.85329714983624</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.352767767959026</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.41087787749189</v>
+        <v>-18.05280466099339</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.593016929757685</v>
+        <v>-2.556398268324492</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.49863627825528</v>
+        <v>-10.93083679874551</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.369049026419265</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.17307169447828</v>
+        <v>-17.80480489866226</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.424404860931522</v>
+        <v>-2.404770609353992</v>
       </c>
       <c r="G44" t="n">
-        <v>-11.42373180404727</v>
+        <v>-10.74496164667227</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.324633046658621</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.73773007801384</v>
+        <v>-17.37408828269392</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.477142578004934</v>
+        <v>-2.494679445636558</v>
       </c>
       <c r="G45" t="n">
-        <v>-11.11371010060246</v>
+        <v>-10.30350877162419</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.242556822893859</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.46003937697994</v>
+        <v>-17.06483415332722</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.579567271866802</v>
+        <v>-2.597891269603999</v>
       </c>
       <c r="G46" t="n">
-        <v>-10.90797580263582</v>
+        <v>-10.06804931190669</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.147384328705789</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.91277861531808</v>
+        <v>-16.54742566759474</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.586103874047867</v>
+        <v>-2.645886650016503</v>
       </c>
       <c r="G47" t="n">
-        <v>-10.91824271705634</v>
+        <v>-10.01877301169506</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.061866659575942</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.19232967440263</v>
+        <v>-15.80656512300992</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.593818726883859</v>
+        <v>-2.661135462434411</v>
       </c>
       <c r="G48" t="n">
-        <v>-10.50835815934792</v>
+        <v>-9.513694601280942</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.004939730996513</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.05749086501311</v>
+        <v>-15.63178312751771</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.625528825422669</v>
+        <v>-2.772619486020672</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.15472651465023</v>
+        <v>-9.133183196828952</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.9907605338532367</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.38547242612131</v>
+        <v>-15.04123021004932</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.759917846180427</v>
+        <v>-2.911873068611011</v>
       </c>
       <c r="G50" t="n">
-        <v>-10.17831108377623</v>
+        <v>-9.191983282417338</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.025463720638224</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.8193058749051</v>
+        <v>-14.5235626069529</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.770443877964895</v>
+        <v>-2.906353379858264</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.874962874704755</v>
+        <v>-8.852319530338422</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.106525917253027</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.30715307155456</v>
+        <v>-14.03351300364768</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.823719385793667</v>
+        <v>-2.960543131971149</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.333138688678906</v>
+        <v>-8.288426367315319</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.222753047711583</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.01743052462117</v>
+        <v>-13.81387437015152</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.761159653924624</v>
+        <v>-2.932749127932738</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.263377449694897</v>
+        <v>-8.207263964317663</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.355438438239869</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.51551041264308</v>
+        <v>-13.35281168856024</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.900286122336423</v>
+        <v>-3.072809396656117</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.203306222321112</v>
+        <v>-8.090925156912554</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.482114074424586</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.08826010254339</v>
+        <v>-12.91118769827181</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.88716891691249</v>
+        <v>-3.13437177112431</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.349164853188654</v>
+        <v>-8.301616907842256</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.578883111123927</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.82315370518493</v>
+        <v>-12.66048920415015</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.997249795527947</v>
+        <v>-3.218184015843833</v>
       </c>
       <c r="G56" t="n">
-        <v>-9.186849825207076</v>
+        <v>-8.164367818067351</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.622983633317599</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.42190313360348</v>
+        <v>-12.26501254967853</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.098369124556349</v>
+        <v>-3.262629977270957</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.35671347979117</v>
+        <v>-8.327455309133901</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.597741584545842</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.17665588213843</v>
+        <v>-12.03548834429747</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.009007857042877</v>
+        <v>-3.196266598059454</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.659983464752772</v>
+        <v>-8.669421783447133</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.494772266978677</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.00808781437407</v>
+        <v>-11.82776910954286</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.195318130727272</v>
+        <v>-3.38785211015325</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.936285687836468</v>
+        <v>-9.054401740175484</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.313796177096092</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.77735113529002</v>
+        <v>-11.65960194034159</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.212845220345162</v>
+        <v>-3.393014901404712</v>
       </c>
       <c r="G60" t="n">
-        <v>-10.45929697543843</v>
+        <v>-9.565835859516589</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.063028713548891</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.35796234823232</v>
+        <v>-11.30391202375292</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.374749571749918</v>
+        <v>-3.525316316230297</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.81318773750007</v>
+        <v>-9.899481244142333</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.7579737365402389</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.11291554604881</v>
+        <v>-11.06953792355989</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.371097483620332</v>
+        <v>-3.531608468068017</v>
       </c>
       <c r="G62" t="n">
-        <v>-11.26622755882274</v>
+        <v>-10.31118940141211</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.4179697925463154</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.87569115485236</v>
+        <v>-10.83830256577541</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.452377222782793</v>
+        <v>-3.582908817122555</v>
       </c>
       <c r="G63" t="n">
-        <v>-11.63345553161732</v>
+        <v>-10.66450326066345</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.06433358148441723</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.99793099354583</v>
+        <v>-10.98536878133908</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.589152078891606</v>
+        <v>-3.707827831579099</v>
       </c>
       <c r="G64" t="n">
-        <v>-11.97963632984984</v>
+        <v>-11.00440168507198</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2811573713381523</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.07105586925428</v>
+        <v>-11.06208707709471</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.582649699758609</v>
+        <v>-3.654161203200974</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.35852947302888</v>
+        <v>-11.40670828213668</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5996276828034898</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.10976702562651</v>
+        <v>-11.11829598904363</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.650249997707442</v>
+        <v>-3.751408438790779</v>
       </c>
       <c r="G66" t="n">
-        <v>-12.59985574098667</v>
+        <v>-11.61230568791105</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.875951638856139</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.01613765511823</v>
+        <v>-11.00834711361358</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.806712884469321</v>
+        <v>-3.9362666774357</v>
       </c>
       <c r="G67" t="n">
-        <v>-12.76634598083259</v>
+        <v>-11.76093638567213</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.098529945293504</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.96888540374949</v>
+        <v>-10.99696061662053</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.663015194636956</v>
+        <v>-3.779432226151935</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.04733676150166</v>
+        <v>-11.98857343440256</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.262723829169985</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.25355271758248</v>
+        <v>-11.2949309181384</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.477951617703625</v>
+        <v>-3.657148386396659</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.37502244675663</v>
+        <v>-12.26098889702706</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.371734284450487</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.23846524239118</v>
+        <v>-11.38695669439434</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.355085986131185</v>
+        <v>-3.457403121841982</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.72713849932558</v>
+        <v>-12.60264736390768</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.433376350286337</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.55666625432434</v>
+        <v>-11.72889872367324</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.351634347283144</v>
+        <v>-3.489851460417696</v>
       </c>
       <c r="G71" t="n">
-        <v>-14.38861623941231</v>
+        <v>-13.21195940072442</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.460635218277913</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.93164819200985</v>
+        <v>-12.1029419720403</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.367934296177438</v>
+        <v>-3.514990733727373</v>
       </c>
       <c r="G72" t="n">
-        <v>-14.59477099196951</v>
+        <v>-13.42606367844723</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.470579646697595</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.35773491847522</v>
+        <v>-12.55563467387542</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.499155240485435</v>
+        <v>-3.648035277596729</v>
       </c>
       <c r="G73" t="n">
-        <v>-14.53906075872101</v>
+        <v>-13.31508322256826</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.478084710139491</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.86961882644808</v>
+        <v>-13.06993375124054</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.540227787174388</v>
+        <v>-3.703427725398876</v>
       </c>
       <c r="G74" t="n">
-        <v>-14.74581685912285</v>
+        <v>-13.46531751458169</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.495310375852442</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.40228101360534</v>
+        <v>-13.55606726004536</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.439968923354563</v>
+        <v>-3.595121556276109</v>
       </c>
       <c r="G75" t="n">
-        <v>-14.8596818290533</v>
+        <v>-13.50981725508435</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.532944698443101</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.62784512342419</v>
+        <v>-13.78882798797232</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.447209542524464</v>
+        <v>-3.60795519930176</v>
       </c>
       <c r="G76" t="n">
-        <v>-14.81688835194719</v>
+        <v>-13.47392216666746</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.596738700500994</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.38465849741576</v>
+        <v>-14.49732819610503</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.630689081232915</v>
+        <v>-3.816437119127615</v>
       </c>
       <c r="G77" t="n">
-        <v>-14.88213214858617</v>
+        <v>-13.45501148810623</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.688238572839582</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.86510609123436</v>
+        <v>-15.0120770621019</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.549516900221526</v>
+        <v>-3.757030796687731</v>
       </c>
       <c r="G78" t="n">
-        <v>-14.84789443349717</v>
+        <v>-13.42356539593823</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.808056485183497</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.78754923986327</v>
+        <v>-15.93417798025013</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.581187886705401</v>
+        <v>-3.889899336309879</v>
       </c>
       <c r="G79" t="n">
-        <v>-14.78892323266844</v>
+        <v>-13.32623015822482</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.953974425797942</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.52415145946701</v>
+        <v>-16.62949742586964</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.824675095698366</v>
+        <v>-4.085865398556431</v>
       </c>
       <c r="G80" t="n">
-        <v>-14.65773162240164</v>
+        <v>-13.19146957294518</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.120184515035856</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.99628285260498</v>
+        <v>-17.11923902174225</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.697072016471886</v>
+        <v>-3.962994877977124</v>
       </c>
       <c r="G81" t="n">
-        <v>-14.45265734036203</v>
+        <v>-12.96581257199585</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.299571251946185</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.7008376321961</v>
+        <v>-17.81500336698664</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.821976363907829</v>
+        <v>-4.108613947508186</v>
       </c>
       <c r="G82" t="n">
-        <v>-14.53159035622837</v>
+        <v>-13.07056443312637</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.483587196985698</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.60269317290843</v>
+        <v>-18.69261921165281</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.989063062591514</v>
+        <v>-4.321926206118552</v>
       </c>
       <c r="G83" t="n">
-        <v>-14.40695490417011</v>
+        <v>-12.94079552385785</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.662608795317365</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.39043929334697</v>
+        <v>-19.49762352633156</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.130340694024756</v>
+        <v>-4.446229205709864</v>
       </c>
       <c r="G84" t="n">
-        <v>-14.19776896735542</v>
+        <v>-12.7198857485763</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.827712122039388</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.65077637356897</v>
+        <v>-20.77995135944095</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.927187791683839</v>
+        <v>-4.280873215457067</v>
       </c>
       <c r="G85" t="n">
-        <v>-14.16566774826725</v>
+        <v>-12.65630910327894</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.971696757042484</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.86475589067889</v>
+        <v>-21.96659643915795</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.205592287720311</v>
+        <v>-4.553684687637788</v>
       </c>
       <c r="G86" t="n">
-        <v>-13.88134755392181</v>
+        <v>-12.34750965155085</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.089301678779031</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.86627872538015</v>
+        <v>-22.97861108259561</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.11710126342915</v>
+        <v>-4.519970096283543</v>
       </c>
       <c r="G87" t="n">
-        <v>-14.1298704399877</v>
+        <v>-12.57382177942035</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.1785924924643</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.9083069819738</v>
+        <v>-24.00229089641773</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.904972144480578</v>
+        <v>-4.333684267633482</v>
       </c>
       <c r="G88" t="n">
-        <v>-13.89810218045473</v>
+        <v>-12.39251295976081</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.242785344588608</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.27782536354775</v>
+        <v>-25.32091960551396</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.171770138214993</v>
+        <v>-4.660749049016358</v>
       </c>
       <c r="G89" t="n">
-        <v>-13.69817113363911</v>
+        <v>-12.12992928994567</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.288634228508671</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.92008188219942</v>
+        <v>-26.97561375763506</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.060374116752336</v>
+        <v>-4.635844448036294</v>
       </c>
       <c r="G90" t="n">
-        <v>-13.69794135031637</v>
+        <v>-12.13006618213794</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.325118396633997</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.30548953609084</v>
+        <v>-28.37708424358773</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.922391675947396</v>
+        <v>-4.482075404058085</v>
       </c>
       <c r="G91" t="n">
-        <v>-13.37325262627081</v>
+        <v>-11.78758636210368</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.364486441081869</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.99842549992495</v>
+        <v>-30.08301274317066</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.950894585981509</v>
+        <v>-4.545466267094504</v>
       </c>
       <c r="G92" t="n">
-        <v>-13.33416501636983</v>
+        <v>-11.84054897349298</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.418627087086496</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.84835236326256</v>
+        <v>-31.89697118298838</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.829671660716353</v>
+        <v>-4.420830815036242</v>
       </c>
       <c r="G93" t="n">
-        <v>-13.47802893243566</v>
+        <v>-11.9801887876258</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.495649564769271</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.43695447605327</v>
+        <v>-33.48548040464862</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.822049699010833</v>
+        <v>-4.518239387852654</v>
       </c>
       <c r="G94" t="n">
-        <v>-13.61218328086381</v>
+        <v>-12.07020029305257</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.603005716890384</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.58990198500227</v>
+        <v>-35.64387182274393</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.590902343349961</v>
+        <v>-4.380511175404794</v>
       </c>
       <c r="G95" t="n">
-        <v>-13.43822752753211</v>
+        <v>-11.90117754764959</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.742489816168251</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.39477420555783</v>
+        <v>-37.4292955739829</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.612404195550653</v>
+        <v>-4.440665515895315</v>
       </c>
       <c r="G96" t="n">
-        <v>-13.42318405340261</v>
+        <v>-11.94233809646214</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.909584039369911</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.44792730633936</v>
+        <v>-39.47851302423656</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.690652750455627</v>
+        <v>-4.535952259731488</v>
       </c>
       <c r="G97" t="n">
-        <v>-13.65730881424544</v>
+        <v>-12.06606419324316</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.094914837032676</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.66397722691963</v>
+        <v>-41.58568720639408</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.516447657773714</v>
+        <v>-4.406936257520469</v>
       </c>
       <c r="G98" t="n">
-        <v>-13.68120139080405</v>
+        <v>-12.16772131302692</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.284755596947391</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.75343120368801</v>
+        <v>-43.64292751691634</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.397791461113687</v>
+        <v>-4.337204352577661</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.06841073466371</v>
+        <v>-12.54436551304718</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.456624463512697</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.17536820369952</v>
+        <v>-46.08942077616866</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.039451702803157</v>
+        <v>-4.003881642405133</v>
       </c>
       <c r="G100" t="n">
-        <v>-14.42309840484466</v>
+        <v>-12.93270910649997</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.591135516199612</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.30561605376543</v>
+        <v>-48.21916872528243</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.591036881976585</v>
+        <v>-3.62377113651623</v>
       </c>
       <c r="G101" t="n">
-        <v>-14.54427244004115</v>
+        <v>-13.12848938648558</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.659518621783681</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.61501300470744</v>
+        <v>-50.59054606077974</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.613980991203016</v>
+        <v>-3.718857431070859</v>
       </c>
       <c r="G102" t="n">
-        <v>-15.30400455113226</v>
+        <v>-13.84945167312206</v>
       </c>
     </row>
   </sheetData>
